--- a/Lab03/Lab03.xlsx
+++ b/Lab03/Lab03.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06245B0-24C5-4DC8-BC74-69F6369910B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48299408-B499-4989-918C-AD316CB81464}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -212,18 +212,12 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -350,7 +344,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="34">
@@ -371,44 +365,44 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -720,7 +714,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t> = 1,59</a:t>
+            <a:t> = 2,53</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1400" baseline="0">
@@ -755,7 +749,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t> = 2,76, </a:t>
+            <a:t> = 2,57, </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ru-RU" sz="1400">
@@ -1099,8 +1093,8 @@
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>584403</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>546303</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>140834</xdr:rowOff>
     </xdr:to>
@@ -1137,16 +1131,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1161,7 +1155,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6560820" y="1249680"/>
+          <a:off x="6286500" y="1257300"/>
           <a:ext cx="8214360" cy="1181100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1322,16 +1316,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1352,7 +1346,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6659880" y="2628900"/>
+          <a:off x="6301740" y="2644140"/>
           <a:ext cx="3017520" cy="449580"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1631,7 +1625,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1640,13 +1634,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="32" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="11"/>
@@ -1655,40 +1649,42 @@
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="15">
-        <v>15.6</v>
-      </c>
-      <c r="C2" s="15">
+      <c r="B2" s="32">
+        <f>15.6^2</f>
+        <v>243.35999999999999</v>
+      </c>
+      <c r="C2" s="32">
         <v>16</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="14">
         <f>C2-1</f>
         <v>15</v>
       </c>
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="15">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="C3" s="15">
+      <c r="B3" s="32">
+        <f>9.8^2</f>
+        <v>96.04000000000002</v>
+      </c>
+      <c r="C3" s="32">
         <v>21</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="14">
         <f>C3-1</f>
         <v>20</v>
       </c>
@@ -1698,9 +1694,9 @@
       <c r="A4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="13">
         <f>B2/B3</f>
-        <v>1.5918367346938773</v>
+        <v>2.5339441899208657</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -1712,9 +1708,9 @@
       <c r="A5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="16">
-        <f>_xlfn.F.INV.RT(0.025,F3,F2)</f>
-        <v>2.7559019509779965</v>
+      <c r="B5" s="13">
+        <f>_xlfn.F.INV.RT(0.025,F2,F3)</f>
+        <v>2.5730961411916615</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -1752,7 +1748,7 @@
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1763,107 +1759,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="28">
+      <c r="B1" s="25">
         <v>1</v>
       </c>
-      <c r="C1" s="29">
+      <c r="C1" s="26">
         <v>2</v>
       </c>
-      <c r="D1" s="29">
+      <c r="D1" s="26">
         <v>3</v>
       </c>
-      <c r="E1" s="29">
+      <c r="E1" s="26">
         <v>4</v>
       </c>
-      <c r="F1" s="29">
+      <c r="F1" s="26">
         <v>5</v>
       </c>
-      <c r="G1" s="29">
+      <c r="G1" s="26">
         <v>6</v>
       </c>
-      <c r="H1" s="29">
+      <c r="H1" s="26">
         <v>7</v>
       </c>
-      <c r="I1" s="29">
+      <c r="I1" s="26">
         <v>8</v>
       </c>
-      <c r="J1" s="29">
+      <c r="J1" s="26">
         <v>9</v>
       </c>
-      <c r="K1" s="29">
+      <c r="K1" s="26">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="18">
         <v>1.9</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="18">
         <v>0.8</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="18">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="18">
         <v>0.1</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="18">
         <v>-0.1</v>
       </c>
-      <c r="G2" s="21">
+      <c r="G2" s="18">
         <v>4.4000000000000004</v>
       </c>
-      <c r="H2" s="21">
+      <c r="H2" s="18">
         <v>5.5</v>
       </c>
-      <c r="I2" s="21">
+      <c r="I2" s="18">
         <v>1.6</v>
       </c>
-      <c r="J2" s="21">
+      <c r="J2" s="18">
         <v>4.5999999999999996</v>
       </c>
-      <c r="K2" s="21">
+      <c r="K2" s="18">
         <v>3.4</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="18">
         <v>0.7</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="18">
         <v>-1.6</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="18">
         <v>-0.2</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="18">
         <v>-1.2</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="18">
         <v>-0.1</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="18">
         <v>3.4</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="18">
         <v>3.7</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="18">
         <v>0.8</v>
       </c>
-      <c r="J3" s="21">
+      <c r="J3" s="18">
         <v>0</v>
       </c>
-      <c r="K3" s="21">
+      <c r="K3" s="18">
         <v>2</v>
       </c>
     </row>
@@ -1962,7 +1958,7 @@
       <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="22"/>
+      <c r="D9" s="19"/>
     </row>
     <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -2080,102 +2076,102 @@
       <c r="C22" s="4"/>
     </row>
     <row r="33" spans="13:17" x14ac:dyDescent="0.3">
-      <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="19"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
     </row>
     <row r="34" spans="13:17" x14ac:dyDescent="0.3">
-      <c r="M34" s="19"/>
-      <c r="N34" s="18"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="15"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
-      <c r="Q34" s="19"/>
+      <c r="Q34" s="16"/>
     </row>
     <row r="35" spans="13:17" x14ac:dyDescent="0.3">
-      <c r="M35" s="19"/>
+      <c r="M35" s="16"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
-      <c r="Q35" s="19"/>
+      <c r="Q35" s="16"/>
     </row>
     <row r="36" spans="13:17" x14ac:dyDescent="0.3">
-      <c r="M36" s="19"/>
+      <c r="M36" s="16"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
-      <c r="Q36" s="19"/>
+      <c r="Q36" s="16"/>
     </row>
     <row r="37" spans="13:17" x14ac:dyDescent="0.3">
-      <c r="M37" s="19"/>
+      <c r="M37" s="16"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
-      <c r="Q37" s="19"/>
+      <c r="Q37" s="16"/>
     </row>
     <row r="38" spans="13:17" x14ac:dyDescent="0.3">
-      <c r="M38" s="19"/>
+      <c r="M38" s="16"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
-      <c r="Q38" s="19"/>
+      <c r="Q38" s="16"/>
     </row>
     <row r="39" spans="13:17" x14ac:dyDescent="0.3">
-      <c r="M39" s="19"/>
+      <c r="M39" s="16"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-      <c r="Q39" s="19"/>
+      <c r="Q39" s="16"/>
     </row>
     <row r="40" spans="13:17" x14ac:dyDescent="0.3">
-      <c r="M40" s="19"/>
+      <c r="M40" s="16"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-      <c r="Q40" s="19"/>
+      <c r="Q40" s="16"/>
     </row>
     <row r="41" spans="13:17" x14ac:dyDescent="0.3">
-      <c r="M41" s="19"/>
+      <c r="M41" s="16"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
-      <c r="Q41" s="19"/>
+      <c r="Q41" s="16"/>
     </row>
     <row r="42" spans="13:17" x14ac:dyDescent="0.3">
-      <c r="M42" s="19"/>
+      <c r="M42" s="16"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
-      <c r="Q42" s="19"/>
+      <c r="Q42" s="16"/>
     </row>
     <row r="43" spans="13:17" x14ac:dyDescent="0.3">
-      <c r="M43" s="19"/>
+      <c r="M43" s="16"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
-      <c r="Q43" s="19"/>
+      <c r="Q43" s="16"/>
     </row>
     <row r="44" spans="13:17" x14ac:dyDescent="0.3">
-      <c r="M44" s="19"/>
+      <c r="M44" s="16"/>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
-      <c r="Q44" s="19"/>
+      <c r="Q44" s="16"/>
     </row>
     <row r="45" spans="13:17" x14ac:dyDescent="0.3">
-      <c r="M45" s="19"/>
+      <c r="M45" s="16"/>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
-      <c r="Q45" s="19"/>
+      <c r="Q45" s="16"/>
     </row>
     <row r="46" spans="13:17" x14ac:dyDescent="0.3">
-      <c r="M46" s="19"/>
-      <c r="N46" s="19"/>
-      <c r="O46" s="19"/>
-      <c r="P46" s="19"/>
-      <c r="Q46" s="19"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="16"/>
+      <c r="P46" s="16"/>
+      <c r="Q46" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2189,7 +2185,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2200,6 +2196,7 @@
     <col min="5" max="5" width="13.109375" customWidth="1"/>
     <col min="6" max="6" width="11.21875" customWidth="1"/>
     <col min="7" max="7" width="16.44140625" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -2211,16 +2208,16 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="23"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="20"/>
       <c r="G2" s="7" t="s">
         <v>8</v>
       </c>
@@ -2233,81 +2230,81 @@
       <c r="J2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="22">
         <v>135</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="22">
         <v>156</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="22">
         <v>165</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="7">
-        <f ca="1">COUNT(B3:M3)</f>
+      <c r="E3" s="22"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="27">
+        <f>COUNT(B3:E3)</f>
         <v>3</v>
       </c>
       <c r="H3" s="7">
         <f>AVERAGE(B3:D3)</f>
         <v>152</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="27">
         <f>_xlfn.VAR.S(B3:D3)</f>
         <v>237</v>
       </c>
-      <c r="J3" s="7">
-        <f ca="1">G3-1</f>
+      <c r="J3" s="27">
+        <f>G3-1</f>
         <v>2</v>
       </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="22">
         <v>176</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="22">
         <v>196</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="22">
         <v>204</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="22">
         <v>180</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="7">
-        <f ca="1">COUNT(B4:M4)</f>
+      <c r="F4" s="16"/>
+      <c r="G4" s="27">
+        <f>COUNT(B4:E4)</f>
         <v>4</v>
       </c>
       <c r="H4" s="7">
         <f>AVERAGE(B4:E4)</f>
         <v>189</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="27">
         <f>_xlfn.VAR.S(B4:E4)</f>
         <v>174.66666666666666</v>
       </c>
-      <c r="J4" s="7">
-        <f ca="1">G4-1</f>
+      <c r="J4" s="27">
+        <f>G4-1</f>
         <v>3</v>
       </c>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -2321,7 +2318,7 @@
         <v>16</v>
       </c>
       <c r="D5">
-        <f ca="1">_xlfn.F.INV.RT(C1/2,J3,J4)</f>
+        <f>_xlfn.F.INV.RT(C1/2,J3,J4)</f>
         <v>16.044106429277196</v>
       </c>
       <c r="G5" s="7"/>
@@ -2334,70 +2331,71 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <f ca="1">(H3-H4)/SQRT(I6*(1/G3+1/G4))</f>
-        <v>-3.465226780125652</v>
+        <f>(H3-H4)/SQRT(I6*(1/G3+1/G4))</f>
+        <v>-3.428947871353484</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6">
-        <f>_xlfn.T.INV.2T(C1*2,J6)</f>
-        <v>2.0150483733330233</v>
+        <f>_xlfn.T.INV.2T(C1,5)</f>
+        <v>2.570581835636315</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
-      <c r="I6" s="7">
-        <f ca="1">((J3-1)*I3+(J4-1)*I4)/(J3+J4-2)</f>
-        <v>195.44444444444443</v>
-      </c>
-      <c r="J6" s="7">
+      <c r="I6" s="27">
+        <f>(2*237+3*174.67)/(5)</f>
+        <v>199.602</v>
+      </c>
+      <c r="J6" s="27">
+        <f>J3+J4</f>
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="33" t="s">
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
     </row>
     <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
+      <c r="D9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26" t="s">
+      <c r="D10" s="16"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="G10" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
@@ -2409,7 +2407,7 @@
       <c r="C11" s="3">
         <v>189</v>
       </c>
-      <c r="D11" s="19"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="3" t="s">
         <v>25</v>
       </c>
@@ -2420,9 +2418,9 @@
         <v>189</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
@@ -2434,7 +2432,7 @@
       <c r="C12" s="3">
         <v>174.66666666666666</v>
       </c>
-      <c r="D12" s="19"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="3" t="s">
         <v>26</v>
       </c>
@@ -2445,9 +2443,9 @@
         <v>174.66666666666666</v>
       </c>
       <c r="H12" s="3"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
@@ -2459,7 +2457,7 @@
       <c r="C13" s="3">
         <v>4</v>
       </c>
-      <c r="D13" s="19"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="3" t="s">
         <v>27</v>
       </c>
@@ -2470,9 +2468,9 @@
         <v>4</v>
       </c>
       <c r="H13" s="3"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
@@ -2484,7 +2482,7 @@
       <c r="C14" s="3">
         <v>3</v>
       </c>
-      <c r="D14" s="19"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="3" t="s">
         <v>43</v>
       </c>
@@ -2493,9 +2491,9 @@
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2505,7 +2503,7 @@
         <v>1.3568702290076338</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="19"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="3" t="s">
         <v>29</v>
       </c>
@@ -2514,9 +2512,9 @@
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
@@ -2526,7 +2524,7 @@
         <v>0.38045309245244607</v>
       </c>
       <c r="C16" s="3"/>
-      <c r="D16" s="19"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="3" t="s">
         <v>6</v>
       </c>
@@ -2535,9 +2533,9 @@
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
     </row>
     <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
@@ -2547,7 +2545,7 @@
         <v>9.5520944959211587</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="19"/>
+      <c r="D17" s="16"/>
       <c r="E17" s="3" t="s">
         <v>30</v>
       </c>
@@ -2556,9 +2554,9 @@
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E18" s="3" t="s">
@@ -2569,9 +2567,9 @@
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E19" s="3" t="s">
@@ -2582,9 +2580,9 @@
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E20" s="3" t="s">
@@ -2595,9 +2593,9 @@
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
     </row>
     <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E21" s="4" t="s">
@@ -2608,9 +2606,9 @@
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
